--- a/biology/Zoologie/Anolis_bahorucoensis/Anolis_bahorucoensis.xlsx
+++ b/biology/Zoologie/Anolis_bahorucoensis/Anolis_bahorucoensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anolis bahorucoensis est une espèce de sauriens de la famille des Dactyloidae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anolis bahorucoensis est une espèce de sauriens de la famille des Dactyloidae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Hispaniola[1]. Elle se rencontre dans le Sud-Est d'Haïti et dans le sud-ouest de la République dominicaine.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Hispaniola. Elle se rencontre dans le Sud-Est d'Haïti et dans le sud-ouest de la République dominicaine.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (3 janvier 2013)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (3 janvier 2013) :
 Anolis bahorucoensis bahorucoensis Noble &amp; Hassler, 1933
 Anolis bahorucoensis southerlandi Schwartz, 1978</t>
         </is>
@@ -574,7 +590,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de bahoruco et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, la Sierra de Bahoruco.
 </t>
@@ -605,7 +623,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Noble &amp; Hassler, 1933 : Two new species of frogs, five new species and a new race of lizards from the Dominican Republic. American Museum Novitates, no 652, p. 1-17 (texte intégral).
 Schwartz, 1978 : The Hispaniolan Anolis (Reptilia, Lacertilia, Iguanidae) of the hendersoni complex. Journal of Herpetology, vol. 12, no 3, p. 355-370.</t>
